--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2933.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2933.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9856055313887501</v>
+        <v>1.628542900085449</v>
       </c>
       <c r="B1">
-        <v>1.835611713906197</v>
+        <v>1.820488452911377</v>
       </c>
       <c r="C1">
-        <v>7.219473416429437</v>
+        <v>4.984848976135254</v>
       </c>
       <c r="D1">
-        <v>3.189610913505415</v>
+        <v>1.453904151916504</v>
       </c>
       <c r="E1">
-        <v>1.455117779590457</v>
+        <v>0.7635625600814819</v>
       </c>
     </row>
   </sheetData>
